--- a/db diagram.xlsx
+++ b/db diagram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andypierce/Desktop/Development/PP4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4057836C-20B1-B743-BBF7-14FF4B86688A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F7945F-BD53-B64C-991B-A702F0AC23F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30240" yWindow="-1460" windowWidth="38400" windowHeight="21100" xr2:uid="{091543B5-CB1E-054B-9EE9-7918645F8621}"/>
   </bookViews>
@@ -293,10 +293,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -319,15 +319,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>25400</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>1231900</xdr:rowOff>
+      <xdr:rowOff>1257300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -341,9 +341,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4470400" y="2438400"/>
-          <a:ext cx="2806700" cy="1231900"/>
+        <a:xfrm flipV="1">
+          <a:off x="4483100" y="2628900"/>
+          <a:ext cx="2819400" cy="1270000"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -372,15 +372,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
+      <xdr:colOff>508000</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1257300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -394,9 +394,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8534400" y="2463800"/>
-          <a:ext cx="12700" cy="1270000"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8559800" y="2641600"/>
+          <a:ext cx="12700" cy="1257300"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -427,11 +427,11 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>546100</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
+      <xdr:colOff>558800</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -447,9 +447,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4483100" y="6350000"/>
-          <a:ext cx="0" cy="609600"/>
+        <a:xfrm flipV="1">
+          <a:off x="4483100" y="6565900"/>
+          <a:ext cx="12700" cy="1257300"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -884,7 +884,7 @@
   <dimension ref="E2:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="X30" sqref="X30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -914,454 +914,454 @@
   </cols>
   <sheetData>
     <row r="2" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="I5" s="3"/>
-      <c r="J5" s="3" t="s">
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="I6" s="3"/>
-      <c r="J6" s="3" t="s">
+      <c r="I6" s="2"/>
+      <c r="J6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="I7" s="3"/>
-      <c r="J7" s="3" t="s">
+      <c r="I7" s="2"/>
+      <c r="J7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="I8" s="3"/>
-      <c r="J8" s="3" t="s">
+      <c r="I8" s="2"/>
+      <c r="J8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="I9" s="3"/>
-      <c r="J9" s="3" t="s">
+      <c r="I9" s="2"/>
+      <c r="J9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="I10" s="3"/>
-      <c r="J10" s="3" t="s">
+      <c r="I10" s="2"/>
+      <c r="J10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
+      <c r="I11" s="2"/>
+      <c r="J11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
+      <c r="I12" s="2"/>
+      <c r="J12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
+      <c r="I13" s="2"/>
+      <c r="J13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="5:15" ht="100" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="I15" s="2" t="s">
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="I15" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="M15" s="2" t="s">
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="M15" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
     </row>
     <row r="16" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="M16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="N16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="O16" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3" t="s">
+      <c r="M17" s="2"/>
+      <c r="N17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="O17" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E18" s="3"/>
-      <c r="F18" s="3" t="s">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3" t="s">
+      <c r="I18" s="2"/>
+      <c r="J18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3" t="s">
+      <c r="M18" s="2"/>
+      <c r="N18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="O18" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E19" s="3"/>
-      <c r="F19" s="3" t="s">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3" t="s">
+      <c r="I19" s="2"/>
+      <c r="J19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3" t="s">
+      <c r="M19" s="2"/>
+      <c r="N19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="O19" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="20" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E20" s="3"/>
-      <c r="F20" s="3" t="s">
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3" t="s">
+      <c r="I20" s="2"/>
+      <c r="J20" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3" t="s">
+      <c r="M20" s="2"/>
+      <c r="N20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O20" s="3" t="s">
+      <c r="O20" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E21" s="3"/>
-      <c r="F21" s="3" t="s">
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3" t="s">
+      <c r="I21" s="2"/>
+      <c r="J21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="K21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3" t="s">
+      <c r="M21" s="2"/>
+      <c r="N21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O21" s="3" t="s">
+      <c r="O21" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="22" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E22" s="3"/>
-      <c r="F22" s="3" t="s">
+      <c r="E22" s="2"/>
+      <c r="F22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3" t="s">
+      <c r="I22" s="2"/>
+      <c r="J22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3" t="s">
+      <c r="M22" s="2"/>
+      <c r="N22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="O22" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E23" s="3"/>
-      <c r="F23" s="3" t="s">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="24" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E24" s="3"/>
-      <c r="F24" s="3" t="s">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E25" s="3"/>
-      <c r="F25" s="3" t="s">
+      <c r="E25" s="2"/>
+      <c r="F25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="26" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E26" s="3"/>
-      <c r="F26" s="3" t="s">
+      <c r="E26" s="2"/>
+      <c r="F26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="27" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E27" s="3"/>
-      <c r="F27" s="3" t="s">
+      <c r="E27" s="2"/>
+      <c r="F27" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="28" spans="5:15" ht="100" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="M29" s="2" t="s">
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="M29" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
     </row>
     <row r="30" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M30" s="3" t="s">
+      <c r="M30" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N30" s="3" t="s">
+      <c r="N30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O30" s="3" t="s">
+      <c r="O30" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3" t="s">
+      <c r="M31" s="2"/>
+      <c r="N31" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O31" s="3" t="s">
+      <c r="O31" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="32" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E32" s="3"/>
-      <c r="F32" s="3" t="s">
+      <c r="E32" s="2"/>
+      <c r="F32" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3" t="s">
+      <c r="M32" s="2"/>
+      <c r="N32" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O32" s="3" t="s">
+      <c r="O32" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="33" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E33" s="3"/>
-      <c r="F33" s="3" t="s">
+      <c r="E33" s="2"/>
+      <c r="F33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3" t="s">
+      <c r="M33" s="2"/>
+      <c r="N33" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O33" s="3" t="s">
+      <c r="O33" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="34" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E34" s="3"/>
-      <c r="F34" s="3" t="s">
+      <c r="E34" s="2"/>
+      <c r="F34" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="35" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E35" s="3"/>
-      <c r="F35" s="3" t="s">
+      <c r="E35" s="2"/>
+      <c r="F35" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G35" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="36" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E36" s="3"/>
-      <c r="F36" s="3" t="s">
+      <c r="E36" s="2"/>
+      <c r="F36" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G36" s="2" t="s">
         <v>43</v>
       </c>
     </row>
